--- a/Specification file/華南產險API欄位輸出文件_產險(SCI)_v1.xlsx
+++ b/Specification file/華南產險API欄位輸出文件_產險(SCI)_v1.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6019CF8-A93E-754E-A756-70A86737063F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="5610" windowHeight="9525"/>
+    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="承保紀錄" sheetId="3" r:id="rId1"/>
     <sheet name="理賠紀錄" sheetId="4" r:id="rId2"/>
     <sheet name="關懷名單" sheetId="6" r:id="rId3"/>
-    <sheet name="線上報案(新增)" sheetId="11" r:id="rId4"/>
+    <sheet name="線上報案記錄" sheetId="11" r:id="rId4"/>
     <sheet name="保險到期日" sheetId="5" r:id="rId5"/>
     <sheet name="繳費狀況及方式" sheetId="8" r:id="rId6"/>
     <sheet name="產品資訊查詢(車險)" sheetId="10" r:id="rId7"/>
@@ -20,8 +21,8 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'產品資訊查詢(車險)'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1730,7 +1731,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2001,7 +2002,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2283,28 +2284,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" style="4" customWidth="1"/>
     <col min="5" max="5" width="61" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1">
@@ -2327,7 +2328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2489,21 +2490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="10.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="4"/>
+    <col min="3" max="3" width="10.3984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="17" style="4" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="42.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="42.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
@@ -2526,7 +2527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="94.5">
+    <row r="3" spans="1:6" ht="90">
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="94.5">
+    <row r="4" spans="1:6" ht="90">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="63">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
@@ -2657,22 +2658,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="10.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="4"/>
+    <col min="3" max="3" width="10.59765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.19921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.3984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="47.25" customHeight="1">
@@ -2773,7 +2774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2781,13 +2782,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="4" max="4" width="19" style="33" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
@@ -2875,22 +2876,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" style="4" customWidth="1"/>
     <col min="3" max="3" width="10" style="4" customWidth="1"/>
     <col min="4" max="4" width="23" style="4" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="46.796875" style="4" customWidth="1"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1">
@@ -2995,19 +2996,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="13.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="39.19921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="49" style="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3091,7 +3092,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="63">
+    <row r="5" spans="1:6" ht="60">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="113.1" customHeight="1">
+    <row r="6" spans="1:6" ht="113" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
@@ -3149,22 +3150,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="18" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="32.3984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4378,22 +4379,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="17" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.19921875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">

--- a/Specification file/華南產險API欄位輸出文件_產險(SCI)_v1.xlsx
+++ b/Specification file/華南產險API欄位輸出文件_產險(SCI)_v1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6019CF8-A93E-754E-A756-70A86737063F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D08DE4-7A70-8947-B2C8-2DFEC02D4E51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="承保紀錄" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="348">
   <si>
     <t>insurance_records</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>理賠金額</t>
-  </si>
-  <si>
-    <t>claim_descript</t>
   </si>
   <si>
     <t>出險原因</t>
@@ -462,27 +459,6 @@
   </si>
   <si>
     <t>HNC000000，前面3位大寫字字母，後面六位數字，共10萬筆模擬資料可供參賽者查詢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">確認保單號碼格式
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>◎強制險：SPF000001~SPF999999
-◎任意險：SPX000001~SPX999999
-◎旅綜險：SPT000001~SPT999999
-◎個人傷害險：SPA000001~SPA999999
-◎個人健康險：SPH000001~SPH999999</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1727,12 +1703,88 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>car_type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_id</t>
+  </si>
+  <si>
+    <t>identity_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type: 0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type: 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>request type 0, response identity_id
+request type 1, response license_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>policy_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>license_no</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim_descript</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>payments_period</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>當type為1時才需response</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">確認保單號碼格式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>◎強制險：SPF000001~SPF999999
+◎任意險：SPX000001~SPX999999
+◎旅綜險：SPT000001~SPT999999
+◎個人傷害險：SPA000001~SPA999999
+◎個人健康險：SPH000001~SPH999999</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,6 +1868,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="BiauKai"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體 (本文)"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1831,7 +1933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1854,11 +1956,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1911,9 +2023,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1973,9 +2082,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2023,6 +2160,309 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>146537</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>410306</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>488460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF85D086-E032-534C-8A46-CFE3388E12D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10775460" y="2080846"/>
+          <a:ext cx="5451231" cy="2793999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/record</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>Input value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>user_id</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>api_key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>type (type=0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
+            <a:t>除車險其餘的保險，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>type=1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
+            <a:t> 車險</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>request example:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/record?user_id=0&amp;type=0&amp;api_key=xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>334819</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>992909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1200727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6FD640-18EF-3041-B138-B23DB7FC274A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10044546" y="1674091"/>
+          <a:ext cx="6834909" cy="3255818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/claim </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>Input value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>policy_no</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>api_key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>request example:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/claim?user_id=0&amp;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>policy_no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>=SPF000001&amp;api_key=xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2292,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2308,27 +2748,27 @@
     <col min="6" max="6" width="34.796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:19" ht="31.5" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
+      <c r="E1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="30">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2342,15 +2782,15 @@
         <v>13</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="102" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="102" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>1</v>
+        <v>341</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>14</v>
@@ -2362,13 +2802,26 @@
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="143.25" customHeight="1">
+        <v>314</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+    </row>
+    <row r="4" spans="1:19" ht="143.25" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -2379,16 +2832,29 @@
         <v>12</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="39.75" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="51"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+    </row>
+    <row r="5" spans="1:19" ht="39.75" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -2399,14 +2865,27 @@
         <v>12</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" ht="112.5" customHeight="1">
+        <v>317</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+    </row>
+    <row r="6" spans="1:19" ht="112.5" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2417,16 +2896,29 @@
         <v>12</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="82.5" customHeight="1">
+        <v>333</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+    </row>
+    <row r="7" spans="1:19" ht="82.5" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -2437,16 +2929,16 @@
         <v>12</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="135.75" customHeight="1">
+        <v>334</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="135.75" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -2457,17 +2949,19 @@
         <v>12</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="F8" s="23" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="F8" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="33.75" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>335</v>
+      </c>
       <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
@@ -2475,17 +2969,21 @@
         <v>12</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="F9" s="23"/>
+        <v>318</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.44" bottom="0.41" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2493,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2508,23 +3006,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>35</v>
+      <c r="E1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30">
@@ -2538,13 +3036,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>36</v>
+      <c r="F2" s="22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="90">
@@ -2561,15 +3059,15 @@
         <v>19</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90">
       <c r="A4" s="13" t="s">
-        <v>1</v>
+        <v>341</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>14</v>
@@ -2581,10 +3079,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>123</v>
+        <v>347</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
@@ -2598,13 +3096,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>43</v>
+        <v>113</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="102" customHeight="1">
@@ -2621,15 +3119,15 @@
         <v>22</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>118</v>
+        <v>316</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="387.75" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
@@ -2638,31 +3136,32 @@
         <v>12</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>119</v>
+        <v>320</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2674,34 +3173,36 @@
     <col min="5" max="5" width="45.19921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="16.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" ht="47.25" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="66" customHeight="1">
+    </row>
+    <row r="2" spans="1:9" ht="66" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>16</v>
@@ -2709,64 +3210,81 @@
       <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>165</v>
+      <c r="D2" s="35" t="s">
+        <v>163</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" ht="100.5" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="100.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>337</v>
+      </c>
       <c r="B3" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:7" ht="52.5" customHeight="1">
-      <c r="A4" s="13"/>
+        <v>164</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="52.5" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>342</v>
+      </c>
       <c r="B4" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="E8" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:I4"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2780,92 +3298,102 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" customWidth="1"/>
     <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="19" style="33" customWidth="1"/>
+    <col min="4" max="4" width="19" style="32" customWidth="1"/>
     <col min="5" max="5" width="45.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>164</v>
+      <c r="E1" s="33" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="81" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>138</v>
+      <c r="D2" s="42" t="s">
+        <v>136</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="69.75" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="A3" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="39" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="A4" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="39" customHeight="1">
+      <c r="A5" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="39" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2880,7 +3408,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2895,31 +3423,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="E1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="53.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>16</v>
@@ -2927,66 +3455,72 @@
       <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="26"/>
+      <c r="D2" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="48" t="s">
+        <v>336</v>
+      </c>
       <c r="B3" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>132</v>
+      <c r="D3" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13" t="s">
+        <v>341</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>138</v>
+      <c r="D4" s="31" t="s">
+        <v>136</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" ht="81" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>139</v>
+      <c r="D5" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="E6" s="24"/>
+      <c r="E6" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2997,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3013,28 +3547,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>44</v>
+      <c r="E1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="54" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>11</v>
@@ -3043,13 +3577,13 @@
         <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>36</v>
+      <c r="F2" s="22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1">
@@ -3066,15 +3600,15 @@
         <v>15</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>43</v>
+        <v>147</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="131.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>16</v>
@@ -3083,64 +3617,69 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>142</v>
+        <v>166</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60">
       <c r="A5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="113" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>148</v>
+        <v>165</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A7" s="29"/>
+      <c r="A7" s="13" t="s">
+        <v>345</v>
+      </c>
       <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21" t="s">
-        <v>144</v>
+      <c r="C7" s="21"/>
+      <c r="D7" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F7" s="29"/>
+        <v>158</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3171,532 +3710,532 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>326</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3704,18 +4243,18 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7"/>
       <c r="H28" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3723,18 +4262,18 @@
         <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="F29" s="7"/>
       <c r="H29" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3742,18 +4281,18 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7"/>
       <c r="H30" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4382,7 +4921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -4399,1221 +4938,1221 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="38" t="s">
+    </row>
+    <row r="3" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A3" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>172</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="37">
+        <v>3081001</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="38">
-        <v>3081001</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>175</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="38" t="s">
+    <row r="5" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A5" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>177</v>
+      <c r="B5" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>175</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>179</v>
+    <row r="6" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>177</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>181</v>
+    <row r="7" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A7" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>183</v>
+    <row r="8" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>185</v>
+    <row r="9" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A9" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>183</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>187</v>
+    <row r="10" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>185</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>189</v>
+    <row r="11" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>191</v>
+    <row r="12" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>189</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>193</v>
+    <row r="13" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>195</v>
+    <row r="14" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A15" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>197</v>
+    <row r="15" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A15" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>199</v>
+    <row r="16" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>197</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>201</v>
+    <row r="17" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>203</v>
+    <row r="18" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>201</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>205</v>
+    <row r="19" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>203</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>207</v>
+    <row r="20" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>205</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>209</v>
+    <row r="21" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>207</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>211</v>
+    <row r="22" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>209</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>213</v>
+    <row r="23" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>211</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>215</v>
+    <row r="24" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A24" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>213</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>217</v>
+    <row r="25" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>215</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>221</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="38" t="s">
+    <row r="27" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E27" s="38" t="s">
-        <v>223</v>
+      <c r="B27" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>221</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="37" t="s">
         <v>224</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>226</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="38" t="s">
+    <row r="29" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="38" t="s">
-        <v>228</v>
+      <c r="B29" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>226</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A30" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>230</v>
+    <row r="30" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A30" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>232</v>
+    <row r="31" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>230</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A32" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>234</v>
+    <row r="32" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A32" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>232</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A33" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>236</v>
+    <row r="33" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A33" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>234</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>238</v>
+    <row r="34" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>236</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>240</v>
+    <row r="35" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>238</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>242</v>
+    <row r="36" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>240</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>244</v>
+    <row r="37" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>242</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A38" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>246</v>
+    <row r="38" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A38" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>244</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>248</v>
+    <row r="39" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>246</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A40" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>250</v>
+    <row r="40" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A40" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A41" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>252</v>
+    <row r="41" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A41" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>250</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A42" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>254</v>
+    <row r="42" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A42" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>252</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>256</v>
+    <row r="43" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A43" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>258</v>
+    <row r="44" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A44" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>256</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="38" t="s">
-        <v>259</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>260</v>
+    <row r="45" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A45" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="38" t="s">
-        <v>261</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="39"/>
-      <c r="D46" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>262</v>
+    <row r="46" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A46" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A47" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>264</v>
+    <row r="47" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A47" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="39"/>
-      <c r="D48" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>266</v>
+    <row r="48" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A48" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A49" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="B49" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>268</v>
+    <row r="49" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A49" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A50" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>270</v>
+    <row r="50" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A50" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>268</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A51" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>272</v>
+    <row r="51" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A51" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>270</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A52" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>274</v>
+    <row r="52" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A52" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>272</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A53" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B53" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>276</v>
+    <row r="53" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A53" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>274</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A54" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="B54" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>278</v>
+    <row r="54" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A54" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>276</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A55" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>280</v>
+    <row r="55" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A55" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>278</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A56" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>282</v>
+    <row r="56" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A56" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>280</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A57" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>256</v>
+    <row r="57" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A57" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A58" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>285</v>
+    <row r="58" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A58" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A59" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" s="39"/>
-      <c r="D59" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>287</v>
+    <row r="59" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A59" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>285</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="B60" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="39"/>
-      <c r="D60" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>289</v>
+    <row r="60" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A60" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>287</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A61" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="39"/>
-      <c r="D61" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>291</v>
+    <row r="61" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A61" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>289</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A62" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C62" s="39"/>
-      <c r="D62" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>293</v>
+    <row r="62" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A62" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>291</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A63" s="38" t="s">
+    <row r="63" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A63" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="B63" s="38" t="s">
+      <c r="E63" s="37" t="s">
         <v>295</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>297</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A64" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="38" t="s">
+    <row r="64" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A64" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="E64" s="38" t="s">
-        <v>299</v>
+      <c r="B64" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>297</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A65" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>301</v>
+    <row r="65" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A65" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65" s="37" t="s">
+        <v>299</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A66" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>303</v>
+    <row r="66" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A66" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>301</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A67" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>305</v>
+    <row r="67" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A67" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>303</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A68" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="E68" s="38" t="s">
-        <v>307</v>
+    <row r="68" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A68" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="38"/>
+      <c r="D68" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>305</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A69" s="38">
+    <row r="69" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A69" s="37">
         <v>8051001</v>
       </c>
-      <c r="B69" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E69" s="38" t="s">
-        <v>309</v>
+      <c r="B69" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>307</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A70" s="38">
+    <row r="70" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A70" s="37">
         <v>8061001</v>
       </c>
-      <c r="B70" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>311</v>
+      <c r="B70" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>309</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" s="40" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A71" s="38">
+    <row r="71" spans="1:7" s="39" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A71" s="37">
         <v>8051002</v>
       </c>
-      <c r="B71" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>312</v>
+      <c r="B71" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>310</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>

--- a/Specification file/華南產險API欄位輸出文件_產險(SCI)_v1.xlsx
+++ b/Specification file/華南產險API欄位輸出文件_產險(SCI)_v1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D08DE4-7A70-8947-B2C8-2DFEC02D4E51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C450B6-37BB-B243-BF2C-F02ED320A0A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="2240" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="349">
   <si>
     <t>insurance_records</t>
   </si>
@@ -1777,6 +1777,10 @@
 ◎個人傷害險：SPA000001~SPA999999
 ◎個人健康險：SPH000001~SPH999999</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要此欄位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1919,7 +1923,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1929,6 +1933,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1970,7 +1980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2109,6 +2119,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2167,13 +2187,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146537</xdr:colOff>
+      <xdr:colOff>146536</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>9769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>410306</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>488460</xdr:rowOff>
     </xdr:to>
@@ -2190,14 +2210,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10775460" y="2080846"/>
-          <a:ext cx="5451231" cy="2793999"/>
+          <a:off x="10768354" y="2076405"/>
+          <a:ext cx="6803828" cy="2787782"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2226,56 +2249,72 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en" altLang="zh-TW" sz="1600"/>
             <a:t>GET http://localhost/bank/huanan/insurance/record</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Input value</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
             <a:t>user_id</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
             <a:t>api_key</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
             <a:t>type (type=0 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
             <a:t>除車險其餘的保險，</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
             <a:t>type=1</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1200"/>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1400"/>
             <a:t> 車險</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
             <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400"/>
         </a:p>
         <a:p>
+          <a:pPr marL="0" indent="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>request example:</a:t>
           </a:r>
         </a:p>
@@ -2298,12 +2337,21 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400"/>
             <a:t>GET http://localhost/bank/huanan/insurance/record?user_id=0&amp;type=0&amp;api_key=xxx</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2323,9 +2371,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
+      <xdr:colOff>461817</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1200727</xdr:rowOff>
+      <xdr:rowOff>577273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2341,13 +2389,16 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10044546" y="1674091"/>
-          <a:ext cx="6834909" cy="3255818"/>
+          <a:ext cx="7054271" cy="2632364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:solidFill>
@@ -2393,20 +2444,216 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>GET http://localhost/bank/huanan/insurance/claim </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Input value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+            <a:t>policy_no</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+            <a:t>api_key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>request example:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/claim?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+            <a:t>policy_no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400"/>
+            <a:t>=SPF000001&amp;api_key=xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF61A20-CD8D-BE47-8CEF-0D40C53A81A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1235364" y="3994727"/>
+          <a:ext cx="6834909" cy="3255818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GET http://localhost/bank/huanan/insurance/blacklist </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Input value</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
-            <a:t>policy_no</a:t>
+            <a:t>type</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>number</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2416,11 +2663,31 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="0" indent="0"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>request example:</a:t>
           </a:r>
         </a:p>
@@ -2444,19 +2711,525 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
-            <a:t>GET http://localhost/bank/huanan/insurance/claim?user_id=0&amp;</a:t>
+            <a:t>GET http://localhost/bank/huanan/insurance/claim?</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>type=0&amp;number=Axxxxxx&amp;api_key=xxxxx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>624416</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>294408</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5288763-CA34-EC42-BDA1-A6F963F850B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624416" y="3894666"/>
+          <a:ext cx="6834909" cy="3255818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GET http://localhost/bank/huanan/insurance/online_report </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Input value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
             <a:t>policy_no</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
-            <a:t>=SPF000001&amp;api_key=xxx</a:t>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>api_key</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>request example:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/claim?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>policy_no=0&amp;api_key=xxxxx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273538</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>621678</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>51512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BBF88D-B555-A940-B51A-462A7AEE144D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273538" y="3653694"/>
+          <a:ext cx="6834909" cy="3255818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GET http://localhost/bank/huanan/insurance/insurance_exp_date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Input value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>policy_no</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>api_key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>request example:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/claim?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>policy_no=0&amp;api_key=xxxxx</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>207434</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>567651</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4FB9CFF-8827-5641-99D6-F06D2606BA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039351" y="2940050"/>
+          <a:ext cx="5613400" cy="3268518"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>GET http://localhost/bank/huanan/insurance/payment_method</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Input value</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>policy_no</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>api_key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>request example:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en" altLang="zh-TW" sz="1200"/>
+            <a:t>GET http://localhost/bank/huanan/insurance/claim?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1200"/>
+            <a:t>policy_no=0&amp;api_key=xxxxx</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2734,8 +3507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2992,7 +3765,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3201,25 +3974,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="55"/>
+      <c r="H2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="100.5" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -3288,6 +4064,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3299,7 +4076,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3400,6 +4177,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3408,7 +4186,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3526,6 +4304,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3533,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -3685,6 +4464,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.27" right="0.22" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
